--- a/biology/Zoologie/Erythrolamprus_semiaureus/Erythrolamprus_semiaureus.xlsx
+++ b/biology/Zoologie/Erythrolamprus_semiaureus/Erythrolamprus_semiaureus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus semiaureus  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus semiaureus  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Paraguay, dans le nord-est de l'Argentine, en Uruguay et au Rio Grande do Sul au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Paraguay, dans le nord-est de l'Argentine, en Uruguay et au Rio Grande do Sul au Brésil.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent venimeux et ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent venimeux et ovipare.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1862 : Catalogues of the Reptiles Obtained during the Explorations of the Parana, Paraguay, Vermejo and Uraguay Rivers, by Capt. Thos. J. Page, U. S. N.; And of Those Procured by Lieut. N. Michler, U. S. Top. Eng., Commander of the Expedition Conducting the Survey of the Atrato River. Proceedings of the Academy of Natural Sciences of Philadelphia, vol. 14, p. 346-359+594 (texte intégral).</t>
         </is>
